--- a/Version_on_pcloud/Data_processing_notebooks/Data_processing_KS24-628/Helper files/Helperfile_KD24.xlsx
+++ b/Version_on_pcloud/Data_processing_notebooks/Data_processing_KS24-628/Helper files/Helperfile_KD24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cljd/Documents/Python_dev/PrePostCalderaKil_2025/Version_on_pcloud/Data_processing_notebooks/Data_processing_KS24-628/Helper files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FB59D9-25FA-7C4B-93A0-5AA6D62E2293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4EEF86A-DD38-CA47-B4E9-9648482B53F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32640" yWindow="4540" windowWidth="35660" windowHeight="24620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32640" yWindow="4180" windowWidth="43400" windowHeight="24620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="123">
   <si>
     <t>filename</t>
   </si>
@@ -330,6 +330,78 @@
   </si>
   <si>
     <t>EBSD_comment</t>
+  </si>
+  <si>
+    <t>FG04-A1-4-end-rep3</t>
+  </si>
+  <si>
+    <t>FG04-A1-4-end-rep4</t>
+  </si>
+  <si>
+    <t>FG04-A1-4-start-rep1</t>
+  </si>
+  <si>
+    <t>FG04-A1-4-start-rep2</t>
+  </si>
+  <si>
+    <t>KD24_c026_a1_FIA</t>
+  </si>
+  <si>
+    <t>KD24_c026_a2_FIB</t>
+  </si>
+  <si>
+    <t>KD24_c026_a3_FID</t>
+  </si>
+  <si>
+    <t>KD24_c028_a1_FIA</t>
+  </si>
+  <si>
+    <t>KD24_c029_a1_FIA</t>
+  </si>
+  <si>
+    <t>KD24_c029_a1_FIB</t>
+  </si>
+  <si>
+    <t>KD24_c030_a1_FIA</t>
+  </si>
+  <si>
+    <t>KD24_c031_a1_FIA</t>
+  </si>
+  <si>
+    <t>KD24_c031_a2_FIB</t>
+  </si>
+  <si>
+    <t>KD24_c031_a2_FIC</t>
+  </si>
+  <si>
+    <t>KD24_c032_a1_FIA</t>
+  </si>
+  <si>
+    <t>KD24_c033_a1_FIA</t>
+  </si>
+  <si>
+    <t>c026</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>c028</t>
+  </si>
+  <si>
+    <t>c029</t>
+  </si>
+  <si>
+    <t>c030</t>
+  </si>
+  <si>
+    <t>c031</t>
+  </si>
+  <si>
+    <t>c032</t>
+  </si>
+  <si>
+    <t>c033</t>
   </si>
 </sst>
 </file>
@@ -683,16 +755,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1AE86E-F97B-4AFF-9664-007014C39847}">
-  <dimension ref="A1:R50"/>
+  <dimension ref="A1:R66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:AE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.83203125" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
     <col min="4" max="4" width="26.83203125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
     <col min="11" max="11" width="19.5" customWidth="1"/>
@@ -2590,6 +2661,594 @@
         <v>KD24_c024_a1_FIA</v>
       </c>
     </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="1">
+        <v>45688</v>
+      </c>
+      <c r="C51">
+        <v>53176</v>
+      </c>
+      <c r="D51" t="s">
+        <v>35</v>
+      </c>
+      <c r="F51" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51" t="s">
+        <v>33</v>
+      </c>
+      <c r="I51">
+        <v>4</v>
+      </c>
+      <c r="J51" t="s">
+        <v>34</v>
+      </c>
+      <c r="K51" t="s">
+        <v>34</v>
+      </c>
+      <c r="L51" t="str">
+        <f>_xlfn.CONCAT(F51,"-",G51,"-",I51,"-end-",B51)</f>
+        <v>FG04-A1-4-end-45688</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="1">
+        <v>45688</v>
+      </c>
+      <c r="C52">
+        <v>53419</v>
+      </c>
+      <c r="D52" t="s">
+        <v>35</v>
+      </c>
+      <c r="F52" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" t="s">
+        <v>33</v>
+      </c>
+      <c r="I52">
+        <v>4</v>
+      </c>
+      <c r="J52" t="s">
+        <v>34</v>
+      </c>
+      <c r="K52" t="s">
+        <v>34</v>
+      </c>
+      <c r="L52" t="str">
+        <f t="shared" ref="L52" si="34">_xlfn.CONCAT(F52,"-",G52,"-",I52,"-end-",B52)</f>
+        <v>FG04-A1-4-end-45688</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" s="1">
+        <v>45688</v>
+      </c>
+      <c r="C53">
+        <v>42345</v>
+      </c>
+      <c r="D53" t="s">
+        <v>35</v>
+      </c>
+      <c r="F53" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" t="s">
+        <v>33</v>
+      </c>
+      <c r="I53">
+        <v>4</v>
+      </c>
+      <c r="J53" t="s">
+        <v>34</v>
+      </c>
+      <c r="K53" t="s">
+        <v>34</v>
+      </c>
+      <c r="L53" t="str">
+        <f>_xlfn.CONCAT(F53,"-",G53,"-",I53,"-end-",B53)</f>
+        <v>FG04-A1-4-end-45688</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" s="1">
+        <v>45688</v>
+      </c>
+      <c r="C54">
+        <v>42876</v>
+      </c>
+      <c r="D54" t="s">
+        <v>35</v>
+      </c>
+      <c r="F54" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" t="s">
+        <v>33</v>
+      </c>
+      <c r="I54">
+        <v>4</v>
+      </c>
+      <c r="J54" t="s">
+        <v>34</v>
+      </c>
+      <c r="K54" t="s">
+        <v>34</v>
+      </c>
+      <c r="L54" t="str">
+        <f>_xlfn.CONCAT(F54,"-",G54,"-",I54,"-end-",B54)</f>
+        <v>FG04-A1-4-end-45688</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>103</v>
+      </c>
+      <c r="B55" s="1">
+        <v>45688</v>
+      </c>
+      <c r="C55">
+        <v>44234</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" t="s">
+        <v>66</v>
+      </c>
+      <c r="G55" t="s">
+        <v>115</v>
+      </c>
+      <c r="H55" t="s">
+        <v>6</v>
+      </c>
+      <c r="I55" t="s">
+        <v>7</v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" ref="J55" si="35">_xlfn.CONCAT(F55,"_",G55)</f>
+        <v>KD24_c026</v>
+      </c>
+      <c r="K55" t="str">
+        <f t="shared" ref="K55" si="36">_xlfn.CONCAT(J55,"_",H55)</f>
+        <v>KD24_c026_a1</v>
+      </c>
+      <c r="L55" t="str">
+        <f t="shared" ref="L55" si="37">_xlfn.CONCAT(K55,"_",I55)</f>
+        <v>KD24_c026_a1_FIA</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>104</v>
+      </c>
+      <c r="B56" s="1">
+        <v>45688</v>
+      </c>
+      <c r="C56">
+        <v>44692</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" t="s">
+        <v>66</v>
+      </c>
+      <c r="G56" t="s">
+        <v>115</v>
+      </c>
+      <c r="H56" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" t="s">
+        <v>9</v>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" ref="J56:J66" si="38">_xlfn.CONCAT(F56,"_",G56)</f>
+        <v>KD24_c026</v>
+      </c>
+      <c r="K56" t="str">
+        <f t="shared" ref="K56:K66" si="39">_xlfn.CONCAT(J56,"_",H56)</f>
+        <v>KD24_c026_a2</v>
+      </c>
+      <c r="L56" t="str">
+        <f t="shared" ref="L56:L66" si="40">_xlfn.CONCAT(K56,"_",I56)</f>
+        <v>KD24_c026_a2_FIB</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" s="1">
+        <v>45688</v>
+      </c>
+      <c r="C57">
+        <v>45205</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" t="s">
+        <v>66</v>
+      </c>
+      <c r="G57" t="s">
+        <v>115</v>
+      </c>
+      <c r="H57" t="s">
+        <v>116</v>
+      </c>
+      <c r="I57" t="s">
+        <v>14</v>
+      </c>
+      <c r="J57" t="str">
+        <f t="shared" si="38"/>
+        <v>KD24_c026</v>
+      </c>
+      <c r="K57" t="str">
+        <f t="shared" si="39"/>
+        <v>KD24_c026_a3</v>
+      </c>
+      <c r="L57" t="str">
+        <f t="shared" si="40"/>
+        <v>KD24_c026_a3_FID</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>106</v>
+      </c>
+      <c r="B58" s="1">
+        <v>45688</v>
+      </c>
+      <c r="C58">
+        <v>46741</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" t="s">
+        <v>66</v>
+      </c>
+      <c r="G58" t="s">
+        <v>117</v>
+      </c>
+      <c r="H58" t="s">
+        <v>6</v>
+      </c>
+      <c r="I58" t="s">
+        <v>7</v>
+      </c>
+      <c r="J58" t="str">
+        <f t="shared" si="38"/>
+        <v>KD24_c028</v>
+      </c>
+      <c r="K58" t="str">
+        <f t="shared" si="39"/>
+        <v>KD24_c028_a1</v>
+      </c>
+      <c r="L58" t="str">
+        <f t="shared" si="40"/>
+        <v>KD24_c028_a1_FIA</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" s="1">
+        <v>45688</v>
+      </c>
+      <c r="C59">
+        <v>47408</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" t="s">
+        <v>66</v>
+      </c>
+      <c r="G59" t="s">
+        <v>118</v>
+      </c>
+      <c r="H59" t="s">
+        <v>6</v>
+      </c>
+      <c r="I59" t="s">
+        <v>7</v>
+      </c>
+      <c r="J59" t="str">
+        <f t="shared" si="38"/>
+        <v>KD24_c029</v>
+      </c>
+      <c r="K59" t="str">
+        <f t="shared" si="39"/>
+        <v>KD24_c029_a1</v>
+      </c>
+      <c r="L59" t="str">
+        <f t="shared" si="40"/>
+        <v>KD24_c029_a1_FIA</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>108</v>
+      </c>
+      <c r="B60" s="1">
+        <v>45688</v>
+      </c>
+      <c r="C60">
+        <v>47675</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" t="s">
+        <v>66</v>
+      </c>
+      <c r="G60" t="s">
+        <v>118</v>
+      </c>
+      <c r="H60" t="s">
+        <v>6</v>
+      </c>
+      <c r="I60" t="s">
+        <v>9</v>
+      </c>
+      <c r="J60" t="str">
+        <f t="shared" si="38"/>
+        <v>KD24_c029</v>
+      </c>
+      <c r="K60" t="str">
+        <f t="shared" si="39"/>
+        <v>KD24_c029_a1</v>
+      </c>
+      <c r="L60" t="str">
+        <f t="shared" si="40"/>
+        <v>KD24_c029_a1_FIB</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61" s="1">
+        <v>45688</v>
+      </c>
+      <c r="C61">
+        <v>50000</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F61" t="s">
+        <v>66</v>
+      </c>
+      <c r="G61" t="s">
+        <v>119</v>
+      </c>
+      <c r="H61" t="s">
+        <v>6</v>
+      </c>
+      <c r="I61" t="s">
+        <v>7</v>
+      </c>
+      <c r="J61" t="str">
+        <f t="shared" si="38"/>
+        <v>KD24_c030</v>
+      </c>
+      <c r="K61" t="str">
+        <f t="shared" si="39"/>
+        <v>KD24_c030_a1</v>
+      </c>
+      <c r="L61" t="str">
+        <f t="shared" si="40"/>
+        <v>KD24_c030_a1_FIA</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" s="1">
+        <v>45688</v>
+      </c>
+      <c r="C62">
+        <v>50822</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F62" t="s">
+        <v>66</v>
+      </c>
+      <c r="G62" t="s">
+        <v>120</v>
+      </c>
+      <c r="H62" t="s">
+        <v>6</v>
+      </c>
+      <c r="I62" t="s">
+        <v>7</v>
+      </c>
+      <c r="J62" t="str">
+        <f t="shared" si="38"/>
+        <v>KD24_c031</v>
+      </c>
+      <c r="K62" t="str">
+        <f t="shared" si="39"/>
+        <v>KD24_c031_a1</v>
+      </c>
+      <c r="L62" t="str">
+        <f t="shared" si="40"/>
+        <v>KD24_c031_a1_FIA</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>111</v>
+      </c>
+      <c r="B63" s="1">
+        <v>45688</v>
+      </c>
+      <c r="C63">
+        <v>51321</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F63" t="s">
+        <v>66</v>
+      </c>
+      <c r="G63" t="s">
+        <v>120</v>
+      </c>
+      <c r="H63" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" t="s">
+        <v>9</v>
+      </c>
+      <c r="J63" t="str">
+        <f t="shared" si="38"/>
+        <v>KD24_c031</v>
+      </c>
+      <c r="K63" t="str">
+        <f t="shared" si="39"/>
+        <v>KD24_c031_a2</v>
+      </c>
+      <c r="L63" t="str">
+        <f t="shared" si="40"/>
+        <v>KD24_c031_a2_FIB</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>112</v>
+      </c>
+      <c r="B64" s="1">
+        <v>45688</v>
+      </c>
+      <c r="C64">
+        <v>51648</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F64" t="s">
+        <v>66</v>
+      </c>
+      <c r="G64" t="s">
+        <v>120</v>
+      </c>
+      <c r="H64" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" t="s">
+        <v>13</v>
+      </c>
+      <c r="J64" t="str">
+        <f t="shared" si="38"/>
+        <v>KD24_c031</v>
+      </c>
+      <c r="K64" t="str">
+        <f t="shared" si="39"/>
+        <v>KD24_c031_a2</v>
+      </c>
+      <c r="L64" t="str">
+        <f t="shared" si="40"/>
+        <v>KD24_c031_a2_FIC</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>113</v>
+      </c>
+      <c r="B65" s="1">
+        <v>45688</v>
+      </c>
+      <c r="C65">
+        <v>52089</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F65" t="s">
+        <v>66</v>
+      </c>
+      <c r="G65" t="s">
+        <v>121</v>
+      </c>
+      <c r="H65" t="s">
+        <v>6</v>
+      </c>
+      <c r="I65" t="s">
+        <v>7</v>
+      </c>
+      <c r="J65" t="str">
+        <f t="shared" si="38"/>
+        <v>KD24_c032</v>
+      </c>
+      <c r="K65" t="str">
+        <f t="shared" si="39"/>
+        <v>KD24_c032_a1</v>
+      </c>
+      <c r="L65" t="str">
+        <f t="shared" si="40"/>
+        <v>KD24_c032_a1_FIA</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>114</v>
+      </c>
+      <c r="B66" s="1">
+        <v>45688</v>
+      </c>
+      <c r="C66">
+        <v>52517</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66" t="s">
+        <v>66</v>
+      </c>
+      <c r="G66" t="s">
+        <v>122</v>
+      </c>
+      <c r="H66" t="s">
+        <v>6</v>
+      </c>
+      <c r="I66" t="s">
+        <v>7</v>
+      </c>
+      <c r="J66" t="str">
+        <f t="shared" si="38"/>
+        <v>KD24_c033</v>
+      </c>
+      <c r="K66" t="str">
+        <f t="shared" si="39"/>
+        <v>KD24_c033_a1</v>
+      </c>
+      <c r="L66" t="str">
+        <f t="shared" si="40"/>
+        <v>KD24_c033_a1_FIA</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Version_on_pcloud/Data_processing_notebooks/Data_processing_KS24-628/Helper files/Helperfile_KD24.xlsx
+++ b/Version_on_pcloud/Data_processing_notebooks/Data_processing_KS24-628/Helper files/Helperfile_KD24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cljd/Documents/Python_dev/PrePostCalderaKil_2025/Version_on_pcloud/Data_processing_notebooks/Data_processing_KS24-628/Helper files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4EEF86A-DD38-CA47-B4E9-9648482B53F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F2AD20-DA2E-7147-BDC1-0ABF199CB11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32640" yWindow="4180" windowWidth="43400" windowHeight="24620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="157">
   <si>
     <t>filename</t>
   </si>
@@ -402,6 +402,108 @@
   </si>
   <si>
     <t>c033</t>
+  </si>
+  <si>
+    <t>KD24_c001_a1</t>
+  </si>
+  <si>
+    <t>KD24_c003_a1</t>
+  </si>
+  <si>
+    <t>KD24_c003_a2</t>
+  </si>
+  <si>
+    <t>KD24_c004_a1</t>
+  </si>
+  <si>
+    <t>KD24_c005_a1</t>
+  </si>
+  <si>
+    <t>KD24_c006_a1</t>
+  </si>
+  <si>
+    <t>KD24_c007_a1</t>
+  </si>
+  <si>
+    <t>KD24_c009_a1</t>
+  </si>
+  <si>
+    <t>KD24_c010_a1</t>
+  </si>
+  <si>
+    <t>KD24_c011_a1</t>
+  </si>
+  <si>
+    <t>KD24_c012_a1</t>
+  </si>
+  <si>
+    <t>KD24_c014_a1</t>
+  </si>
+  <si>
+    <t>KD24_c014_a2</t>
+  </si>
+  <si>
+    <t>KD24_c016_a1</t>
+  </si>
+  <si>
+    <t>KD24_c017_a1</t>
+  </si>
+  <si>
+    <t>KD24_c017_a2</t>
+  </si>
+  <si>
+    <t>KD24_c018_a1</t>
+  </si>
+  <si>
+    <t>KD24_c021_a2</t>
+  </si>
+  <si>
+    <t>KD24_c023_a1</t>
+  </si>
+  <si>
+    <t>KD24_c024_a1</t>
+  </si>
+  <si>
+    <t>KD24_c026_a1</t>
+  </si>
+  <si>
+    <t>KD24_c026_a2</t>
+  </si>
+  <si>
+    <t>KD24_c026_a3</t>
+  </si>
+  <si>
+    <t>KD24_c028_a1</t>
+  </si>
+  <si>
+    <t>KD24_c029_a1</t>
+  </si>
+  <si>
+    <t>KD24_c030_a1</t>
+  </si>
+  <si>
+    <t>KD24_c031_a1</t>
+  </si>
+  <si>
+    <t>KD24_c031_a2</t>
+  </si>
+  <si>
+    <t>KD24_c032_a1</t>
+  </si>
+  <si>
+    <t>KD24_c033_a1</t>
+  </si>
+  <si>
+    <t>KD24_c002_a1</t>
+  </si>
+  <si>
+    <t>KD24_c008_a1</t>
+  </si>
+  <si>
+    <t>KD24_c009_a2</t>
+  </si>
+  <si>
+    <t>KD24_c020_a1</t>
   </si>
 </sst>
 </file>
@@ -757,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1AE86E-F97B-4AFF-9664-007014C39847}">
   <dimension ref="A1:R66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:AE1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1064,6 +1166,9 @@
         <f>_xlfn.CONCAT(K8,"_",I8)</f>
         <v>KD24_c001_a1_FIA</v>
       </c>
+      <c r="M8" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -1095,13 +1200,16 @@
         <v>KD24_c001</v>
       </c>
       <c r="K9" t="str">
-        <f t="shared" ref="K9:L9" si="3">_xlfn.CONCAT(J9,"_",H9)</f>
+        <f t="shared" ref="K9:M9" si="3">_xlfn.CONCAT(J9,"_",H9)</f>
         <v>KD24_c001_a1</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="3"/>
         <v>KD24_c001_a1_FIA</v>
       </c>
+      <c r="M9" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -1133,13 +1241,16 @@
         <v>KD24_c001</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" ref="K10:L10" si="4">_xlfn.CONCAT(J10,"_",H10)</f>
+        <f t="shared" ref="K10:M10" si="4">_xlfn.CONCAT(J10,"_",H10)</f>
         <v>KD24_c001_a1</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="4"/>
         <v>KD24_c001_a1_FIA</v>
       </c>
+      <c r="M10" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1171,13 +1282,16 @@
         <v>KD24_c001</v>
       </c>
       <c r="K11" t="str">
-        <f t="shared" ref="K11:L11" si="5">_xlfn.CONCAT(J11,"_",H11)</f>
+        <f t="shared" ref="K11:M11" si="5">_xlfn.CONCAT(J11,"_",H11)</f>
         <v>KD24_c001_a1</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="5"/>
         <v>KD24_c001_a1_FIB</v>
       </c>
+      <c r="M11" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -1209,13 +1323,16 @@
         <v>KD24_c001</v>
       </c>
       <c r="K12" t="str">
-        <f t="shared" ref="K12:L12" si="6">_xlfn.CONCAT(J12,"_",H12)</f>
+        <f t="shared" ref="K12:M12" si="6">_xlfn.CONCAT(J12,"_",H12)</f>
         <v>KD24_c001_a1</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="6"/>
         <v>KD24_c001_a1_FIC</v>
       </c>
+      <c r="M12" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1247,13 +1364,16 @@
         <v>KD24_c002</v>
       </c>
       <c r="K13" t="str">
-        <f t="shared" ref="K13:L13" si="7">_xlfn.CONCAT(J13,"_",H13)</f>
+        <f t="shared" ref="K13:M13" si="7">_xlfn.CONCAT(J13,"_",H13)</f>
         <v>KD24_c002_a1</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="7"/>
         <v>KD24_c002_a1_FIA</v>
       </c>
+      <c r="M13" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -1285,13 +1405,16 @@
         <v>KD24_c003</v>
       </c>
       <c r="K14" t="str">
-        <f t="shared" ref="K14:L14" si="8">_xlfn.CONCAT(J14,"_",H14)</f>
+        <f t="shared" ref="K14:M14" si="8">_xlfn.CONCAT(J14,"_",H14)</f>
         <v>KD24_c003_a1</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="8"/>
         <v>KD24_c003_a1_FIA</v>
       </c>
+      <c r="M14" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -1323,13 +1446,16 @@
         <v>KD24_c003</v>
       </c>
       <c r="K15" t="str">
-        <f t="shared" ref="K15:L15" si="9">_xlfn.CONCAT(J15,"_",H15)</f>
+        <f t="shared" ref="K15:M15" si="9">_xlfn.CONCAT(J15,"_",H15)</f>
         <v>KD24_c003_a1</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="9"/>
         <v>KD24_c003_a1_FIB</v>
       </c>
+      <c r="M15" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -1361,15 +1487,18 @@
         <v>KD24_c003</v>
       </c>
       <c r="K16" t="str">
-        <f t="shared" ref="K16:L16" si="10">_xlfn.CONCAT(J16,"_",H16)</f>
+        <f t="shared" ref="K16:M16" si="10">_xlfn.CONCAT(J16,"_",H16)</f>
         <v>KD24_c003_a1</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="10"/>
         <v>KD24_c003_a1_FIC</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -1399,15 +1528,18 @@
         <v>KD24_c003</v>
       </c>
       <c r="K17" t="str">
-        <f t="shared" ref="K17:L17" si="11">_xlfn.CONCAT(J17,"_",H17)</f>
+        <f t="shared" ref="K17:M17" si="11">_xlfn.CONCAT(J17,"_",H17)</f>
         <v>KD24_c003_a2</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="11"/>
         <v>KD24_c003_a2_FID</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -1437,15 +1569,18 @@
         <v>KD24_c003</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" ref="K18:L18" si="12">_xlfn.CONCAT(J18,"_",H18)</f>
+        <f t="shared" ref="K18:M18" si="12">_xlfn.CONCAT(J18,"_",H18)</f>
         <v>KD24_c003_a2</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="12"/>
         <v>KD24_c003_a2_FIE</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -1475,15 +1610,18 @@
         <v>KD24_c004</v>
       </c>
       <c r="K19" t="str">
-        <f t="shared" ref="K19:L19" si="13">_xlfn.CONCAT(J19,"_",H19)</f>
+        <f t="shared" ref="K19:M19" si="13">_xlfn.CONCAT(J19,"_",H19)</f>
         <v>KD24_c004_a1</v>
       </c>
       <c r="L19" t="str">
         <f t="shared" si="13"/>
         <v>KD24_c004_a1_FIA</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -1513,15 +1651,18 @@
         <v>KD24_c004</v>
       </c>
       <c r="K20" t="str">
-        <f t="shared" ref="K20:L20" si="14">_xlfn.CONCAT(J20,"_",H20)</f>
+        <f t="shared" ref="K20:M20" si="14">_xlfn.CONCAT(J20,"_",H20)</f>
         <v>KD24_c004_a1</v>
       </c>
       <c r="L20" t="str">
         <f t="shared" si="14"/>
         <v>KD24_c004_a1_FIB</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -1551,15 +1692,18 @@
         <v>KD24_c004</v>
       </c>
       <c r="K21" t="str">
-        <f t="shared" ref="K21:L21" si="15">_xlfn.CONCAT(J21,"_",H21)</f>
+        <f t="shared" ref="K21:M21" si="15">_xlfn.CONCAT(J21,"_",H21)</f>
         <v>KD24_c004_a1</v>
       </c>
       <c r="L21" t="str">
         <f t="shared" si="15"/>
         <v>KD24_c004_a1_FIC</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -1589,15 +1733,18 @@
         <v>KD24_c005</v>
       </c>
       <c r="K22" t="str">
-        <f t="shared" ref="K22:L22" si="16">_xlfn.CONCAT(J22,"_",H22)</f>
+        <f t="shared" ref="K22:M22" si="16">_xlfn.CONCAT(J22,"_",H22)</f>
         <v>KD24_c005_a1</v>
       </c>
       <c r="L22" t="str">
         <f t="shared" si="16"/>
         <v>KD24_c005_a1_FIA</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -1627,15 +1774,18 @@
         <v>KD24_c006</v>
       </c>
       <c r="K23" t="str">
-        <f t="shared" ref="K23:L23" si="17">_xlfn.CONCAT(J23,"_",H23)</f>
+        <f t="shared" ref="K23:M23" si="17">_xlfn.CONCAT(J23,"_",H23)</f>
         <v>KD24_c006_a1</v>
       </c>
       <c r="L23" t="str">
         <f t="shared" si="17"/>
         <v>KD24_c006_a1_FIA</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -1665,15 +1815,18 @@
         <v>KD24_c007</v>
       </c>
       <c r="K24" t="str">
-        <f t="shared" ref="K24:L24" si="18">_xlfn.CONCAT(J24,"_",H24)</f>
+        <f t="shared" ref="K24:M24" si="18">_xlfn.CONCAT(J24,"_",H24)</f>
         <v>KD24_c007_a1</v>
       </c>
       <c r="L24" t="str">
         <f t="shared" si="18"/>
         <v>KD24_c007_a1_FIA</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -1703,15 +1856,18 @@
         <v>KD24_c008</v>
       </c>
       <c r="K25" t="str">
-        <f t="shared" ref="K25:L25" si="19">_xlfn.CONCAT(J25,"_",H25)</f>
+        <f t="shared" ref="K25:M25" si="19">_xlfn.CONCAT(J25,"_",H25)</f>
         <v>KD24_c008_a1</v>
       </c>
       <c r="L25" t="str">
         <f t="shared" si="19"/>
         <v>KD24_c008_a1_FIA</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M25" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -1741,15 +1897,18 @@
         <v>KD24_c008</v>
       </c>
       <c r="K26" t="str">
-        <f t="shared" ref="K26:L26" si="20">_xlfn.CONCAT(J26,"_",H26)</f>
+        <f t="shared" ref="K26:M26" si="20">_xlfn.CONCAT(J26,"_",H26)</f>
         <v>KD24_c008_a1</v>
       </c>
       <c r="L26" t="str">
         <f t="shared" si="20"/>
         <v>KD24_c008_a1_FIB</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M26" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -1779,15 +1938,18 @@
         <v>KD24_c008</v>
       </c>
       <c r="K27" t="str">
-        <f t="shared" ref="K27:L27" si="21">_xlfn.CONCAT(J27,"_",H27)</f>
+        <f t="shared" ref="K27:M27" si="21">_xlfn.CONCAT(J27,"_",H27)</f>
         <v>KD24_c008_a1</v>
       </c>
       <c r="L27" t="str">
         <f t="shared" si="21"/>
         <v>KD24_c008_a1_FIC</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M27" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -1817,15 +1979,18 @@
         <v>KD24_c009</v>
       </c>
       <c r="K28" t="str">
-        <f t="shared" ref="K28:L28" si="22">_xlfn.CONCAT(J28,"_",H28)</f>
+        <f t="shared" ref="K28:M28" si="22">_xlfn.CONCAT(J28,"_",H28)</f>
         <v>KD24_c009_a1</v>
       </c>
       <c r="L28" t="str">
         <f t="shared" si="22"/>
         <v>KD24_c009_a1_FIA</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -1855,15 +2020,18 @@
         <v>KD24_c009</v>
       </c>
       <c r="K29" t="str">
-        <f t="shared" ref="K29:L29" si="23">_xlfn.CONCAT(J29,"_",H29)</f>
+        <f t="shared" ref="K29:M29" si="23">_xlfn.CONCAT(J29,"_",H29)</f>
         <v>KD24_c009_a2</v>
       </c>
       <c r="L29" t="str">
         <f t="shared" si="23"/>
         <v>KD24_c009_a2_FIB</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -1893,15 +2061,18 @@
         <v>KD24_c010</v>
       </c>
       <c r="K30" t="str">
-        <f t="shared" ref="K30:L30" si="24">_xlfn.CONCAT(J30,"_",H30)</f>
+        <f t="shared" ref="K30:M30" si="24">_xlfn.CONCAT(J30,"_",H30)</f>
         <v>KD24_c010_a1</v>
       </c>
       <c r="L30" t="str">
         <f t="shared" si="24"/>
         <v>KD24_c010_a1_FIB</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -1931,15 +2102,18 @@
         <v>KD24_c010</v>
       </c>
       <c r="K31" t="str">
-        <f t="shared" ref="K31:L31" si="25">_xlfn.CONCAT(J31,"_",H31)</f>
+        <f t="shared" ref="K31:M31" si="25">_xlfn.CONCAT(J31,"_",H31)</f>
         <v>KD24_c010_a1</v>
       </c>
       <c r="L31" t="str">
         <f t="shared" si="25"/>
         <v>KD24_c010_a1_FIC</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -1969,15 +2143,18 @@
         <v>KD24_c011</v>
       </c>
       <c r="K32" t="str">
-        <f t="shared" ref="K32:L32" si="26">_xlfn.CONCAT(J32,"_",H32)</f>
+        <f t="shared" ref="K32:M32" si="26">_xlfn.CONCAT(J32,"_",H32)</f>
         <v>KD24_c011_a1</v>
       </c>
       <c r="L32" t="str">
         <f t="shared" si="26"/>
         <v>KD24_c011_a1_FIA</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M32" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -2007,15 +2184,18 @@
         <v>KD24_c011</v>
       </c>
       <c r="K33" t="str">
-        <f t="shared" ref="K33:L33" si="27">_xlfn.CONCAT(J33,"_",H33)</f>
+        <f t="shared" ref="K33:M33" si="27">_xlfn.CONCAT(J33,"_",H33)</f>
         <v>KD24_c011_a1</v>
       </c>
       <c r="L33" t="str">
         <f t="shared" si="27"/>
         <v>KD24_c011_a1_FIB</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -2045,15 +2225,18 @@
         <v>KD24_c012</v>
       </c>
       <c r="K34" t="str">
-        <f t="shared" ref="K34:L34" si="28">_xlfn.CONCAT(J34,"_",H34)</f>
+        <f t="shared" ref="K34:M34" si="28">_xlfn.CONCAT(J34,"_",H34)</f>
         <v>KD24_c012_a1</v>
       </c>
       <c r="L34" t="str">
         <f t="shared" si="28"/>
         <v>KD24_c012_a1_FIA</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M34" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>63</v>
       </c>
@@ -2083,15 +2266,18 @@
         <v>KD24_c012</v>
       </c>
       <c r="K35" t="str">
-        <f t="shared" ref="K35:L35" si="29">_xlfn.CONCAT(J35,"_",H35)</f>
+        <f t="shared" ref="K35:M35" si="29">_xlfn.CONCAT(J35,"_",H35)</f>
         <v>KD24_c012_a1</v>
       </c>
       <c r="L35" t="str">
         <f t="shared" si="29"/>
         <v>KD24_c012_a1_FIB</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M35" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>64</v>
       </c>
@@ -2121,15 +2307,18 @@
         <v>KD24_c012</v>
       </c>
       <c r="K36" t="str">
-        <f t="shared" ref="K36:L36" si="30">_xlfn.CONCAT(J36,"_",H36)</f>
+        <f t="shared" ref="K36:M36" si="30">_xlfn.CONCAT(J36,"_",H36)</f>
         <v>KD24_c012_a1</v>
       </c>
       <c r="L36" t="str">
         <f t="shared" si="30"/>
         <v>KD24_c012_a1_FIC</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M36" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -2159,15 +2348,18 @@
         <v>KD24_c012</v>
       </c>
       <c r="K37" t="str">
-        <f t="shared" ref="K37:L50" si="31">_xlfn.CONCAT(J37,"_",H37)</f>
+        <f t="shared" ref="K37:M50" si="31">_xlfn.CONCAT(J37,"_",H37)</f>
         <v>KD24_c012_a1</v>
       </c>
       <c r="L37" t="str">
         <f t="shared" si="31"/>
         <v>KD24_c012_a1_FID</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M37" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>71</v>
       </c>
@@ -2197,15 +2389,18 @@
         <v>KD24_c014</v>
       </c>
       <c r="K38" t="str">
-        <f t="shared" ref="K38:K50" si="33">_xlfn.CONCAT(J38,"_",H38)</f>
+        <f t="shared" ref="K38:M50" si="33">_xlfn.CONCAT(J38,"_",H38)</f>
         <v>KD24_c014_a1</v>
       </c>
       <c r="L38" t="str">
         <f t="shared" si="31"/>
         <v>KD24_c014_a1_FIA</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M38" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>72</v>
       </c>
@@ -2242,8 +2437,11 @@
         <f t="shared" si="31"/>
         <v>KD24_c014_a2_FIB</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M39" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>73</v>
       </c>
@@ -2280,8 +2478,11 @@
         <f t="shared" si="31"/>
         <v>KD24_c016_a1_FIA</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M40" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>74</v>
       </c>
@@ -2318,8 +2519,11 @@
         <f t="shared" si="31"/>
         <v>KD24_c017_a1_FIA</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M41" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>75</v>
       </c>
@@ -2356,8 +2560,11 @@
         <f t="shared" si="31"/>
         <v>KD24_c017_a2_FIB</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>76</v>
       </c>
@@ -2394,8 +2601,11 @@
         <f t="shared" si="31"/>
         <v>KD24_c018_a1_FIA</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M43" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>77</v>
       </c>
@@ -2432,8 +2642,11 @@
         <f t="shared" si="31"/>
         <v>KD24_c018_a1_FIB</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M44" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>78</v>
       </c>
@@ -2470,8 +2683,11 @@
         <f t="shared" si="31"/>
         <v>KD24_c020_a1_FIA</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M45" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>79</v>
       </c>
@@ -2508,8 +2724,11 @@
         <f t="shared" si="31"/>
         <v>KD24_c021_a2_FIB</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M46" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>80</v>
       </c>
@@ -2546,8 +2765,11 @@
         <f t="shared" si="31"/>
         <v>KD24_c023_a1_FIA</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M47" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>81</v>
       </c>
@@ -2584,8 +2806,11 @@
         <f t="shared" si="31"/>
         <v>KD24_c023_a1_FIB</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M48" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>82</v>
       </c>
@@ -2622,8 +2847,11 @@
         <f t="shared" si="31"/>
         <v>KD24_c023_a1_FIC</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M49" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>83</v>
       </c>
@@ -2660,8 +2888,11 @@
         <f t="shared" si="31"/>
         <v>KD24_c024_a1_FIA</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M50" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>99</v>
       </c>
@@ -2694,7 +2925,7 @@
         <v>FG04-A1-4-end-45688</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>100</v>
       </c>
@@ -2727,7 +2958,7 @@
         <v>FG04-A1-4-end-45688</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>101</v>
       </c>
@@ -2760,7 +2991,7 @@
         <v>FG04-A1-4-end-45688</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>102</v>
       </c>
@@ -2793,7 +3024,7 @@
         <v>FG04-A1-4-end-45688</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>103</v>
       </c>
@@ -2830,8 +3061,11 @@
         <f t="shared" ref="L55" si="37">_xlfn.CONCAT(K55,"_",I55)</f>
         <v>KD24_c026_a1_FIA</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M55" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>104</v>
       </c>
@@ -2868,8 +3102,11 @@
         <f t="shared" ref="L56:L66" si="40">_xlfn.CONCAT(K56,"_",I56)</f>
         <v>KD24_c026_a2_FIB</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M56" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>105</v>
       </c>
@@ -2906,8 +3143,11 @@
         <f t="shared" si="40"/>
         <v>KD24_c026_a3_FID</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M57" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>106</v>
       </c>
@@ -2944,8 +3184,11 @@
         <f t="shared" si="40"/>
         <v>KD24_c028_a1_FIA</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M58" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>107</v>
       </c>
@@ -2982,8 +3225,11 @@
         <f t="shared" si="40"/>
         <v>KD24_c029_a1_FIA</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M59" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>108</v>
       </c>
@@ -3020,8 +3266,11 @@
         <f t="shared" si="40"/>
         <v>KD24_c029_a1_FIB</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M60" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>109</v>
       </c>
@@ -3058,8 +3307,11 @@
         <f t="shared" si="40"/>
         <v>KD24_c030_a1_FIA</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M61" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>110</v>
       </c>
@@ -3096,8 +3348,11 @@
         <f t="shared" si="40"/>
         <v>KD24_c031_a1_FIA</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M62" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>111</v>
       </c>
@@ -3134,8 +3389,11 @@
         <f t="shared" si="40"/>
         <v>KD24_c031_a2_FIB</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M63" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>112</v>
       </c>
@@ -3172,8 +3430,11 @@
         <f t="shared" si="40"/>
         <v>KD24_c031_a2_FIC</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M64" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>113</v>
       </c>
@@ -3210,8 +3471,11 @@
         <f t="shared" si="40"/>
         <v>KD24_c032_a1_FIA</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M65" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>114</v>
       </c>
@@ -3247,6 +3511,9 @@
       <c r="L66" t="str">
         <f t="shared" si="40"/>
         <v>KD24_c033_a1_FIA</v>
+      </c>
+      <c r="M66" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
